--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2413470.759626377</v>
+        <v>2520700.201024466</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9230671.775246812</v>
+        <v>9244120.220626453</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>197.8572131534449</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>333.7702363237893</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>97.57907495992245</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>117.733261015561</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>372.0632447946523</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>105.6307852904542</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>156.7087855117886</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>134.7246557347554</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>198.7866240250363</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>137.4335570568295</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>33.04426825583553</v>
       </c>
       <c r="U10" t="n">
-        <v>250.9885189569925</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>130.9398757025641</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>5.94317878650419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>36.21070476472219</v>
+        <v>81.11398998229724</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.6949510903007</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>100.0416311957226</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>203.5751040450764</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>198.7323644553055</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>53.76947475493812</v>
       </c>
       <c r="T25" t="n">
-        <v>190.4281593935562</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>215.3025979624043</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.7933937888466</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.6789846282036</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,16 +3006,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>64.40601307691422</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>135.3738350208502</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>13.74238375877706</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>23.08134457786378</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>97.98413062224057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>97.75513637220199</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>41.02686156550217</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0.03099717513995529</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>32.81060261323915</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>80.07147829118396</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>34.21058558914873</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1134.226501951988</v>
+        <v>842.8595545333294</v>
       </c>
       <c r="C2" t="n">
-        <v>765.2639850115766</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>406.998286404826</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.83159218888</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>1524.3658339278</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1134.226501951988</v>
+        <v>1042.715325395395</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4391,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>815.1145481251087</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1852.283970943245</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2184.354406119407</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2546.85305505925</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1647.502633584161</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="C4" t="n">
-        <v>1478.566450656254</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D4" t="n">
-        <v>1328.449811243918</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E4" t="n">
-        <v>1229.885089062178</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2339.360847594891</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>2339.360847594891</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>2339.360847594891</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W4" t="n">
-        <v>2049.94367755793</v>
+        <v>504.0139700109311</v>
       </c>
       <c r="X4" t="n">
-        <v>2049.94367755793</v>
+        <v>276.0244191129138</v>
       </c>
       <c r="Y4" t="n">
-        <v>1829.1510984144</v>
+        <v>157.1019332386097</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614817</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>637.2247290165724</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>630.2792282673689</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>215.2067781123654</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1897.83159218888</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.0410834832817</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W7" t="n">
-        <v>998.8232135248292</v>
+        <v>955.3272060569568</v>
       </c>
       <c r="X7" t="n">
-        <v>770.8336626268118</v>
+        <v>727.3376551589395</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.0410834832817</v>
+        <v>506.5450760154093</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024175</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417425</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>731.3215358191806</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>320.335631029573</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>309.3035849149736</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>1961.190851465281</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>1587.725093204202</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.3452334219998</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3452334219998</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1303.855917006673</v>
       </c>
       <c r="U10" t="n">
-        <v>1482.084907393104</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="V10" t="n">
-        <v>1227.400419187217</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="W10" t="n">
-        <v>937.9832491502568</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="X10" t="n">
-        <v>709.9936982522395</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y10" t="n">
-        <v>709.9936982522395</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5042,22 +5044,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5078,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5133,10 +5135,10 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504994</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1682.382642959247</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1392.965472922287</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.975922024269</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.1833428807391</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,19 +5363,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D16" t="n">
-        <v>526.5658826424041</v>
+        <v>489.836033045444</v>
       </c>
       <c r="E16" t="n">
-        <v>526.5658826424041</v>
+        <v>489.836033045444</v>
       </c>
       <c r="F16" t="n">
-        <v>379.6759351444937</v>
+        <v>342.9460855475336</v>
       </c>
       <c r="G16" t="n">
-        <v>212.4798358593736</v>
+        <v>175.7499862624135</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.91413360155</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228102</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.890584782709</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3195.647281583948</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C19" t="n">
-        <v>3026.711098656041</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D19" t="n">
-        <v>2876.594459243706</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E19" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4690.833152398593</v>
+        <v>2263.053792872764</v>
       </c>
       <c r="T19" t="n">
-        <v>4471.231687421535</v>
+        <v>2043.452327895704</v>
       </c>
       <c r="U19" t="n">
-        <v>4370.179534698583</v>
+        <v>1754.377101239902</v>
       </c>
       <c r="V19" t="n">
-        <v>4115.495046492696</v>
+        <v>1499.692613034015</v>
       </c>
       <c r="W19" t="n">
-        <v>3826.077876455735</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X19" t="n">
-        <v>3598.088325557718</v>
+        <v>982.2858920990371</v>
       </c>
       <c r="Y19" t="n">
-        <v>3377.295746414188</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,13 +5740,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5753,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5767,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>738.7889117913854</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.341129796739</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868832</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456496</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4418.156030423645</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4129.080803767843</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3874.396315561957</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>3584.979145524996</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>3356.989594626978</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y22" t="n">
-        <v>3356.989594626978</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K24" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T25" t="n">
-        <v>2004.71086933246</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.635642676658</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>3658.217393399322</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>3658.217393399322</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4210.127123638609</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3045.530642171613</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>2876.594459243706</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.594459243706</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636078</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>3414.849201738061</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>3227.179107001853</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6472,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3175.341129796739</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C31" t="n">
-        <v>3006.404946868832</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>256.118667722925</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V31" t="n">
-        <v>3932.255922673039</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W31" t="n">
-        <v>3642.838752636078</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X31" t="n">
-        <v>3577.782173770509</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y31" t="n">
-        <v>3356.989594626978</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,28 +6694,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2231.58852738579</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2565.513299557011</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>3060.83890577277</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229817</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3093.254426444651</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>2924.318243516745</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>2774.201604104409</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>2626.288510522016</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024105</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024105</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4487.046201155186</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4267.444736178128</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U34" t="n">
-        <v>3978.369509522326</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V34" t="n">
-        <v>3723.685021316439</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W34" t="n">
-        <v>3723.685021316439</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X34" t="n">
-        <v>3495.695470418421</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y34" t="n">
-        <v>3274.902891274891</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7020,13 +7022,13 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
         <v>2129.438138565707</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D37" t="n">
-        <v>422.7903292978459</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>274.8772357154528</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>274.8772357154528</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7126,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7154,34 +7156,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>3062.606292977538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3062.606292977538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>3690.204256532144</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>4242.113986771432</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4665.7371362665</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7306,52 +7308,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>135.2579373565599</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
@@ -7360,22 +7362,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,55 +7399,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>3060.83890577277</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>3658.217393399322</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>3658.217393399322</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D43" t="n">
         <v>632.7243904253734</v>
@@ -7564,55 +7566,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1400.559342807163</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1172.569791909146</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>951.777212765616</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2939.372134388645</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>2939.372134388645</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>2789.255494976309</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874103</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8060,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>36.58048154589926</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>70.03064962107874</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8541,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.3355197601772</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-1.103562085036398e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>36.30694539606375</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>246.1944645373238</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>104.0840080815017</v>
+        <v>59.18072286392662</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>65.33133491134384</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>186.1428431935216</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>13.83034628221182</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>19.85228889678928</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>127.2568112467065</v>
       </c>
       <c r="T25" t="n">
-        <v>26.97729093373209</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>71.22040037418671</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.79125956324816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>161.3036423121229</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>45.65245098079444</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>203.6630665685112</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>144.1654765207641</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>67.54000767002827</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>50.86033664601037</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.5844758430724</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>253.7123957233518</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>66.36248435538521</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>111.2104624337825</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>814965.3661991094</v>
+        <v>814965.3661991092</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>807835.0531978243</v>
+        <v>814965.3661991092</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>807835.0531978243</v>
+        <v>814965.3661991092</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448202</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448201</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448195</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.614759755</v>
@@ -26338,22 +26340,22 @@
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="O2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26368,43 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121058</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099822</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="C4" t="n">
-        <v>87304.34719808327</v>
-      </c>
       <c r="D4" t="n">
-        <v>87304.34719808324</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26445,7 +26447,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732011</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26454,10 +26456,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
+        <v>8117.312426731929</v>
+      </c>
+      <c r="P4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8117.312426732016</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,43 +26524,43 @@
         <v>-705700.1846328082</v>
       </c>
       <c r="C6" t="n">
-        <v>237630.3422732372</v>
+        <v>409051.5989431117</v>
       </c>
       <c r="D6" t="n">
-        <v>441069.0838853428</v>
+        <v>409051.5989431117</v>
       </c>
       <c r="E6" t="n">
-        <v>190886.3107017603</v>
+        <v>8813.330884570096</v>
       </c>
       <c r="F6" t="n">
+        <v>516298.7725091157</v>
+      </c>
+      <c r="G6" t="n">
+        <v>516298.7725091157</v>
+      </c>
+      <c r="H6" t="n">
         <v>516298.7725091158</v>
-      </c>
-      <c r="G6" t="n">
-        <v>516298.7725091155</v>
-      </c>
-      <c r="H6" t="n">
-        <v>516298.7725091159</v>
       </c>
       <c r="I6" t="n">
         <v>516298.7725091158</v>
       </c>
       <c r="J6" t="n">
-        <v>348693.5946991332</v>
+        <v>348693.5946991335</v>
       </c>
       <c r="K6" t="n">
-        <v>467188.6798030616</v>
+        <v>516298.7725091158</v>
       </c>
       <c r="L6" t="n">
-        <v>516298.7725091159</v>
+        <v>516298.7725091158</v>
       </c>
       <c r="M6" t="n">
-        <v>431243.7445736039</v>
+        <v>383691.4787801889</v>
       </c>
       <c r="N6" t="n">
+        <v>516298.7725091155</v>
+      </c>
+      <c r="O6" t="n">
         <v>516298.7725091157</v>
-      </c>
-      <c r="O6" t="n">
-        <v>516298.7725091156</v>
       </c>
       <c r="P6" t="n">
         <v>516298.7725091157</v>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.337298401867845e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,16 +26962,16 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,28 +27029,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000383</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>184.8766285100357</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>48.1601337484725</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>48.85488768664672</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>100.8513923365338</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10.67059686882823</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>188.9769790968663</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>23.12319467014873</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>151.7983426018356</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>95.82114036228418</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>211.8074116605835</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>187.7044277413764</v>
       </c>
       <c r="U10" t="n">
-        <v>35.22331924862041</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29812,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>-4.59286981373232e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30520,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31853,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31996,34 +31998,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673337</v>
+        <v>361.5531172119652</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O18" t="n">
-        <v>424.0909547148526</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>430.4001870301144</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>383.9182138639285</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33272,7 +33274,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561996</v>
+        <v>288.8958573929172</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,31 +33499,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>361.5531172119649</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33740,16 +33742,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>620.0899880277084</v>
       </c>
       <c r="M36" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.3312853305605</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>490.5075832355679</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>485.1127032082914</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>305.6802133385881</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0158803980277</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15.64270034434938</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>405.4553316172018</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531539</v>
+        <v>219.4190832899469</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O18" t="n">
-        <v>281.4947102704082</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>245.9177694853267</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316675</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>615.1440500042467</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36607,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36680,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>249.9438064495983</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728663</v>
+        <v>157.5541453095838</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>219.4190832899467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37388,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>481.5356082478342</v>
       </c>
       <c r="M36" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.349511244539</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>342.516458763847</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>171.7058059242579</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2520700.201024466</v>
+        <v>2516563.043774314</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9244120.220626453</v>
+        <v>9244120.220626451</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197.8572131534449</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>181.2088304955071</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>104.5193398236239</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>117.733261015561</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0632447946523</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>278.6502919001971</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>156.7087855117886</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>85.4556421029896</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>137.4335570568295</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>33.04426825583553</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710061</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9398757025641</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>81.11398998229724</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>115.6949510903007</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.7323644553055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>53.76947475493812</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>215.3025979624043</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.6789846282036</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>79.11532312206182</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>13.74238375877706</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>23.08134457786378</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>97.75513637220199</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03099717513995529</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>133.5893686009544</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>34.21058558914873</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>842.8595545333294</v>
+        <v>1466.396332783113</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>1097.433815842701</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>1097.433815842701</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>711.6455632444568</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>300.6596584548492</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X2" t="n">
-        <v>1042.715325395395</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="Y2" t="n">
-        <v>1042.715325395395</v>
+        <v>1852.996172847234</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
         <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1852.283970943245</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2184.354406119407</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2431.537139951703</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2546.85305505925</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1019332386097</v>
+        <v>643.8611643309004</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1019332386097</v>
+        <v>474.9249814029935</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386097</v>
+        <v>324.8083419906577</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>324.8083419906577</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>324.8083419906577</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>156.8218772989363</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478917</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109311</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X4" t="n">
-        <v>276.0244191129138</v>
+        <v>864.6537434744305</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1019332386097</v>
+        <v>643.8611643309004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1522.010132800342</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.010132800342</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4567,25 +4567,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.83159218888</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.83159218888</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1897.83159218888</v>
+        <v>1218.76257626379</v>
       </c>
       <c r="Y5" t="n">
-        <v>1897.83159218888</v>
+        <v>1218.76257626379</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1590.463386300792</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.2533734782492</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C7" t="n">
-        <v>348.2533734782492</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>955.3272060569568</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>727.3376551589395</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.5450760154093</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
         <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
         <v>51.24678656800311</v>
@@ -4804,13 +4804,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1961.190851465281</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1587.725093204202</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1587.725093204202</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.742491745203</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1303.855917006673</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1014.73757951051</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1014.73757951051</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1014.73757951051</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.73757951051</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.1035305473698</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856866</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577797</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>489.836033045444</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.836033045444</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>342.9460855475336</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.7499862624135</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5539,28 +5539,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5582,31 +5582,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.053792872764</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.452327895704</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.377101239902</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.692613034015</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.275442997055</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>982.2858920990371</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913854</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2325.6047790701</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6542,25 +6542,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>701.0383482155643</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>550.9217088032285</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E31" t="n">
-        <v>403.0086152208354</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="F31" t="n">
-        <v>256.118667722925</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>315.4429620058363</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>173.7311308480343</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6733,13 +6733,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591808</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2183.181349771631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1894.106123115829</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1639.421634909942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958734</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261132</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7241,31 +7241,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>878.3568999154069</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>878.3568999154069</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311994</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7557007032925</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>457.7320700605488</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>310.8421225626385</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>310.8421225626385</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614391</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>36.58048154589926</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>70.03064962107874</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>224.3355197601772</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>138.9393975111061</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.103562085036398e-12</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>36.30694539606375</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.89260457060006</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>59.18072286392662</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>65.33133491134384</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.85228889678928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>127.2568112467065</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>71.22040037418671</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>2.150513196503709</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>203.6630665685112</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>144.1654765207641</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>50.86033664601037</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.5844758430724</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.705344245269515</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>111.2104624337825</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>814965.3661991092</v>
+        <v>814965.3661991094</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>814965.3661991092</v>
+        <v>814965.3661991094</v>
       </c>
     </row>
     <row r="5">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448201</v>
@@ -26322,40 +26322,40 @@
         <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="P2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,19 +26377,19 @@
         <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732007</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731994</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26447,16 +26447,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
+        <v>8117.312426732035</v>
+      </c>
+      <c r="O4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8117.312426731929</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705700.1846328082</v>
+        <v>-705700.184632808</v>
       </c>
       <c r="C6" t="n">
-        <v>409051.5989431117</v>
+        <v>409051.5989431116</v>
       </c>
       <c r="D6" t="n">
         <v>409051.5989431117</v>
       </c>
       <c r="E6" t="n">
-        <v>8813.330884570096</v>
+        <v>8465.951630212872</v>
       </c>
       <c r="F6" t="n">
-        <v>516298.7725091157</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="G6" t="n">
-        <v>516298.7725091157</v>
+        <v>515951.3932547589</v>
       </c>
       <c r="H6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="I6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="J6" t="n">
-        <v>348693.5946991335</v>
+        <v>348346.2154447761</v>
       </c>
       <c r="K6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.393254759</v>
       </c>
       <c r="L6" t="n">
-        <v>516298.7725091158</v>
+        <v>515951.3932547587</v>
       </c>
       <c r="M6" t="n">
-        <v>383691.4787801889</v>
+        <v>383344.0995258323</v>
       </c>
       <c r="N6" t="n">
-        <v>516298.7725091155</v>
+        <v>515951.3932547588</v>
       </c>
       <c r="O6" t="n">
-        <v>516298.7725091157</v>
+        <v>515951.3932547587</v>
       </c>
       <c r="P6" t="n">
-        <v>516298.7725091157</v>
+        <v>515951.3932547588</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.266319098766462e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.266319098766462e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.266319098766462e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.266319098766462e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.266319098766462e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.266319098766462e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.337298401867845e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.266319098766462e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.266319098766462e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,16 +27266,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184.8766285100357</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>230.3388722774469</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>42.73216933150502</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.8513923365338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.67059686882823</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>91.08080877827194</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.12319467014873</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>80.85095794181458</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>211.8074116605835</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>53.81584707847268</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>187.7044277413764</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.502430364027908e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-4.59286981373232e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30522,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M15" t="n">
-        <v>361.5531172119652</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>430.4001870301144</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33262,10 +33262,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>288.8958573929172</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>490.5075832355679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>305.6802133385881</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>15.64270034434938</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>405.4553316172018</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>615.5326193530511</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346383</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193501</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M15" t="n">
-        <v>219.4190832899469</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236316675</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>291.8458072502402</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36910,10 +36910,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>157.5541453095838</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7058059242579</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2516563.043774314</v>
+        <v>2518323.574077099</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>180.6261618334209</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>181.2088304955071</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>104.5193398236239</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>144.5056468392526</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>162.652006550356</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>278.6502919001971</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>94.76732804863899</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>85.4556421029896</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>209.7025251006903</v>
       </c>
       <c r="X8" t="n">
-        <v>196.699784115679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.9807481254279</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>2.60701007315258</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>79.11532312206182</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>159.6155901915576</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3714,13 +3714,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>133.5893686009544</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>105.11626575513</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1466.396332783113</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C2" t="n">
-        <v>1097.433815842701</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D2" t="n">
-        <v>1097.433815842701</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="E2" t="n">
-        <v>711.6455632444568</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>300.6596584548492</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,25 +4330,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4369,13 +4369,13 @@
         <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847234</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847234</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1852.996172847234</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.8611643309004</v>
+        <v>788.8276219385416</v>
       </c>
       <c r="C4" t="n">
-        <v>474.9249814029935</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D4" t="n">
-        <v>324.8083419906577</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>324.8083419906577</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>324.8083419906577</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>156.8218772989363</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="X4" t="n">
-        <v>864.6537434744305</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.8611643309004</v>
+        <v>970.4760867687813</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>832.1627361996682</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1078.689549231437</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>692.9012966331929</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>281.9153918435854</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X5" t="n">
-        <v>1218.76257626379</v>
+        <v>1855.428721271371</v>
       </c>
       <c r="Y5" t="n">
-        <v>1218.76257626379</v>
+        <v>1465.289389295559</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1001.276695922948</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="C7" t="n">
-        <v>837.079342274803</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="D7" t="n">
-        <v>686.9627028624673</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800742</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821638</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
         <v>305.8408313751036</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.45656917648</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.66399003295</v>
+        <v>864.3549109336325</v>
       </c>
     </row>
     <row r="8">
@@ -4804,13 +4804,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4843,13 +4843,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2350.518595975216</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1977.052837714136</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>102.742491745203</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="H10" t="n">
-        <v>102.742491745203</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5001,13 +5001,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
         <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,25 +5105,25 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5135,13 +5135,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,19 +5293,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5539,10 +5539,10 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5582,16 +5582,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5837,13 +5837,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168591</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111702</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="27">
@@ -6293,16 +6293,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6363,34 +6363,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362687</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>315.4429620058363</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>173.7311308480343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1816.233211630147</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6931,34 +6931,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7241,16 +7241,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7326,19 +7326,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7362,10 +7362,10 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.6979859831846</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>755.7618030552777</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>605.645163642942</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>457.7320700605488</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>310.8421225626385</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>310.8421225626385</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.139029956954</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1106.346450813424</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589518</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45.44676101130813</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>138.9393975111061</v>
+        <v>54.95314511566539</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>32.89260457060006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.9159882634384</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>2.150513196503709</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>126.5688841976865</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.705344245269515</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>814965.3661991092</v>
+        <v>814965.3661991094</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>814965.3661991094</v>
+        <v>814965.3661991092</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>794287.262277904</v>
+        <v>794287.2622779039</v>
       </c>
     </row>
     <row r="6">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>794287.2622779039</v>
+        <v>794287.262277904</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448201</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.37164482</v>
-      </c>
-      <c r="C2" t="n">
-        <v>636307.3716448201</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
@@ -26340,16 +26340,16 @@
         <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597547</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732007</v>
+        <v>8117.312426731931</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426731918</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="G4" t="n">
-        <v>8117.312426731994</v>
-      </c>
       <c r="H4" t="n">
-        <v>8117.312426732028</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26450,10 +26450,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426732035</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-705700.184632808</v>
+        <v>-705700.1846328077</v>
       </c>
       <c r="C6" t="n">
+        <v>409051.5989431115</v>
+      </c>
+      <c r="D6" t="n">
         <v>409051.5989431116</v>
       </c>
-      <c r="D6" t="n">
-        <v>409051.5989431117</v>
-      </c>
       <c r="E6" t="n">
-        <v>8465.951630212872</v>
+        <v>8778.592959133908</v>
       </c>
       <c r="F6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.03458368</v>
       </c>
       <c r="G6" t="n">
-        <v>515951.3932547589</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="H6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836797</v>
       </c>
       <c r="I6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="J6" t="n">
-        <v>348346.2154447761</v>
+        <v>348658.8567736975</v>
       </c>
       <c r="K6" t="n">
-        <v>515951.393254759</v>
+        <v>516264.03458368</v>
       </c>
       <c r="L6" t="n">
-        <v>515951.3932547587</v>
+        <v>516264.0345836801</v>
       </c>
       <c r="M6" t="n">
-        <v>383344.0995258323</v>
+        <v>383656.7408547534</v>
       </c>
       <c r="N6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836799</v>
       </c>
       <c r="O6" t="n">
-        <v>515951.3932547587</v>
+        <v>516264.03458368</v>
       </c>
       <c r="P6" t="n">
-        <v>515951.3932547588</v>
+        <v>516264.0345836801</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.266319098766462e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.266319098766462e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.266319098766462e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.266319098766462e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.266319098766464e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,10 +26798,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.266319098766462e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.266319098766462e-14</v>
+        <v>4.266319098766463e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640.5848321000384</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.266319098766462e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.266319098766462e-14</v>
+        <v>4.266319098766463e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>201.3042082388409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>230.3388722774469</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>42.73216933150502</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>76.24304915795935</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>248.895696222598</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>91.08080877827194</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>53.84814496957337</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>80.85095794181458</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>139.5384436167227</v>
       </c>
       <c r="X8" t="n">
-        <v>173.03131656279</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>53.81584707847268</v>
+        <v>53.81584707847223</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.502430364027908e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34780,7 +34780,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294274</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>412.3780932933486</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>388.6189266346383</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193501</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>138.9023428740572</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396407</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
